--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd47</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H2">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I2">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J2">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N2">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P2">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q2">
-        <v>6.509603730552065</v>
+        <v>13.48610128303755</v>
       </c>
       <c r="R2">
-        <v>6.509603730552065</v>
+        <v>121.374911547338</v>
       </c>
       <c r="S2">
-        <v>0.02033536500508672</v>
+        <v>0.03215669653571224</v>
       </c>
       <c r="T2">
-        <v>0.02033536500508672</v>
+        <v>0.03215669653571224</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H3">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I3">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J3">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N3">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P3">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q3">
-        <v>17.07508909939176</v>
+        <v>31.35763124197356</v>
       </c>
       <c r="R3">
-        <v>17.07508909939176</v>
+        <v>282.218681177762</v>
       </c>
       <c r="S3">
-        <v>0.05334090732755883</v>
+        <v>0.0747701511922647</v>
       </c>
       <c r="T3">
-        <v>0.05334090732755883</v>
+        <v>0.07477015119226471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H4">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I4">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J4">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N4">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P4">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q4">
-        <v>18.24163968529409</v>
+        <v>36.15204088303155</v>
       </c>
       <c r="R4">
-        <v>18.24163968529409</v>
+        <v>325.368367947284</v>
       </c>
       <c r="S4">
-        <v>0.05698509719581211</v>
+        <v>0.08620209676791514</v>
       </c>
       <c r="T4">
-        <v>0.05698509719581211</v>
+        <v>0.08620209676791515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H5">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I5">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J5">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N5">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P5">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q5">
-        <v>23.12596091980555</v>
+        <v>44.31352575207278</v>
       </c>
       <c r="R5">
-        <v>23.12596091980555</v>
+        <v>398.821731768655</v>
       </c>
       <c r="S5">
-        <v>0.07224323873824096</v>
+        <v>0.1056626055321985</v>
       </c>
       <c r="T5">
-        <v>0.07224323873824096</v>
+        <v>0.1056626055321985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H6">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I6">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J6">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N6">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P6">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q6">
-        <v>13.63144063443741</v>
+        <v>25.58723021451955</v>
       </c>
       <c r="R6">
-        <v>13.63144063443741</v>
+        <v>230.285071930676</v>
       </c>
       <c r="S6">
-        <v>0.04258328652870962</v>
+        <v>0.06101102015544022</v>
       </c>
       <c r="T6">
-        <v>0.04258328652870962</v>
+        <v>0.06101102015544023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.207905140407515</v>
+        <v>0.3806263333333333</v>
       </c>
       <c r="H7">
-        <v>0.207905140407515</v>
+        <v>1.141879</v>
       </c>
       <c r="I7">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="J7">
-        <v>0.2592086675170148</v>
+        <v>0.3809735272077954</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N7">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P7">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q7">
-        <v>4.392190318309271</v>
+        <v>8.878824675631222</v>
       </c>
       <c r="R7">
-        <v>4.392190318309271</v>
+        <v>79.909422080681</v>
       </c>
       <c r="S7">
-        <v>0.01372077272160655</v>
+        <v>0.02117095702426454</v>
       </c>
       <c r="T7">
-        <v>0.01372077272160655</v>
+        <v>0.02117095702426454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H8">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I8">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J8">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N8">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P8">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q8">
-        <v>5.578275970794241</v>
+        <v>6.398321412502444</v>
       </c>
       <c r="R8">
-        <v>5.578275970794241</v>
+        <v>57.584892712522</v>
       </c>
       <c r="S8">
-        <v>0.01742598822610437</v>
+        <v>0.01525636473296964</v>
       </c>
       <c r="T8">
-        <v>0.01742598822610437</v>
+        <v>0.01525636473296964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H9">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I9">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J9">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N9">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P9">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q9">
-        <v>14.6321593702033</v>
+        <v>14.87725764548644</v>
       </c>
       <c r="R9">
-        <v>14.6321593702033</v>
+        <v>133.895318809378</v>
       </c>
       <c r="S9">
-        <v>0.04570943392593413</v>
+        <v>0.03547381480748887</v>
       </c>
       <c r="T9">
-        <v>0.04570943392593413</v>
+        <v>0.03547381480748888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H10">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I10">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J10">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N10">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P10">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q10">
-        <v>15.63181178706448</v>
+        <v>17.15190865268844</v>
       </c>
       <c r="R10">
-        <v>15.63181178706448</v>
+        <v>154.367177874196</v>
       </c>
       <c r="S10">
-        <v>0.04883225024725345</v>
+        <v>0.04089756631492023</v>
       </c>
       <c r="T10">
-        <v>0.04883225024725345</v>
+        <v>0.04089756631492023</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H11">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I11">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J11">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N11">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P11">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q11">
-        <v>19.81733411743905</v>
+        <v>21.02402871907722</v>
       </c>
       <c r="R11">
-        <v>19.81733411743905</v>
+        <v>189.216258471695</v>
       </c>
       <c r="S11">
-        <v>0.06190741239969523</v>
+        <v>0.05013037476796935</v>
       </c>
       <c r="T11">
-        <v>0.06190741239969523</v>
+        <v>0.05013037476796937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H12">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I12">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J12">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N12">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P12">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q12">
-        <v>11.68119303199761</v>
+        <v>12.13955905656044</v>
       </c>
       <c r="R12">
-        <v>11.68119303199761</v>
+        <v>109.256031509044</v>
       </c>
       <c r="S12">
-        <v>0.03649090387571129</v>
+        <v>0.02894595765420845</v>
       </c>
       <c r="T12">
-        <v>0.03649090387571129</v>
+        <v>0.02894595765420846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.178160191763545</v>
+        <v>0.1805836666666667</v>
       </c>
       <c r="H13">
-        <v>0.178160191763545</v>
+        <v>0.541751</v>
       </c>
       <c r="I13">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982336</v>
       </c>
       <c r="J13">
-        <v>0.2221237330692525</v>
+        <v>0.1807483886982337</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.12593421067</v>
+        <v>23.32687966666667</v>
       </c>
       <c r="N13">
-        <v>21.12593421067</v>
+        <v>69.980639</v>
       </c>
       <c r="O13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037586</v>
       </c>
       <c r="P13">
-        <v>0.05293330988133684</v>
+        <v>0.05557067752037585</v>
       </c>
       <c r="Q13">
-        <v>3.763800490157003</v>
+        <v>4.212453462098778</v>
       </c>
       <c r="R13">
-        <v>3.763800490157003</v>
+        <v>37.91208115888899</v>
       </c>
       <c r="S13">
-        <v>0.01175774439455409</v>
+        <v>0.01004431042067709</v>
       </c>
       <c r="T13">
-        <v>0.01175774439455409</v>
+        <v>0.01004431042067709</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H14">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I14">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J14">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3104510922269</v>
+        <v>35.43134066666666</v>
       </c>
       <c r="N14">
-        <v>31.3104510922269</v>
+        <v>106.294022</v>
       </c>
       <c r="O14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="P14">
-        <v>0.07845171691163405</v>
+        <v>0.0844066430846071</v>
       </c>
       <c r="Q14">
-        <v>13.02549244360624</v>
+        <v>0.5067980864491111</v>
       </c>
       <c r="R14">
-        <v>13.02549244360624</v>
+        <v>4.561182778041999</v>
       </c>
       <c r="S14">
-        <v>0.04069036368044297</v>
+        <v>0.001208425765815772</v>
       </c>
       <c r="T14">
-        <v>0.04069036368044297</v>
+        <v>0.001208425765815772</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H15">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I15">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J15">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.1292300225135</v>
+        <v>82.38429266666667</v>
       </c>
       <c r="N15">
-        <v>82.1292300225135</v>
+        <v>247.152878</v>
       </c>
       <c r="O15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="P15">
-        <v>0.2057836562276895</v>
+        <v>0.1962607526571856</v>
       </c>
       <c r="Q15">
-        <v>34.16666409264954</v>
+        <v>1.178397460873111</v>
       </c>
       <c r="R15">
-        <v>34.16666409264954</v>
+        <v>10.605577147858</v>
       </c>
       <c r="S15">
-        <v>0.1067333149741965</v>
+        <v>0.00280980905841273</v>
       </c>
       <c r="T15">
-        <v>0.1067333149741965</v>
+        <v>0.002809809058412731</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H16">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I16">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J16">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.7402052182964</v>
+        <v>94.98039866666666</v>
       </c>
       <c r="N16">
-        <v>87.7402052182964</v>
+        <v>284.941196</v>
       </c>
       <c r="O16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="P16">
-        <v>0.2198425605967499</v>
+        <v>0.2262679441264634</v>
       </c>
       <c r="Q16">
-        <v>36.50089156189467</v>
+        <v>1.358567962395111</v>
       </c>
       <c r="R16">
-        <v>36.50089156189467</v>
+        <v>12.227111661556</v>
       </c>
       <c r="S16">
-        <v>0.1140252131536843</v>
+        <v>0.003239413435581184</v>
       </c>
       <c r="T16">
-        <v>0.1140252131536843</v>
+        <v>0.003239413435581184</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H17">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I17">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J17">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.233232975752</v>
+        <v>116.4226483333333</v>
       </c>
       <c r="N17">
-        <v>111.233232975752</v>
+        <v>349.267945</v>
       </c>
       <c r="O17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="P17">
-        <v>0.2787068790186147</v>
+        <v>0.2773489441815381</v>
       </c>
       <c r="Q17">
-        <v>46.27424981313172</v>
+        <v>1.665270754210555</v>
       </c>
       <c r="R17">
-        <v>46.27424981313172</v>
+        <v>14.987436787895</v>
       </c>
       <c r="S17">
-        <v>0.1445562278806785</v>
+        <v>0.003970725502432544</v>
       </c>
       <c r="T17">
-        <v>0.1445562278806785</v>
+        <v>0.003970725502432544</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.416011011953767</v>
+        <v>0.01430366666666667</v>
       </c>
       <c r="H18">
-        <v>0.416011011953767</v>
+        <v>0.042911</v>
       </c>
       <c r="I18">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="J18">
-        <v>0.5186675994137327</v>
+        <v>0.01431671396532707</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>65.5656738824178</v>
+        <v>67.22401466666666</v>
       </c>
       <c r="N18">
-        <v>65.5656738824178</v>
+        <v>201.672044</v>
       </c>
       <c r="O18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="P18">
-        <v>0.1642818773639751</v>
+        <v>0.1601450384298299</v>
       </c>
       <c r="Q18">
-        <v>27.2760423412553</v>
+        <v>0.961549897787111</v>
       </c>
       <c r="R18">
-        <v>27.2760423412553</v>
+        <v>8.653949080083999</v>
       </c>
       <c r="S18">
-        <v>0.0852076869595542</v>
+        <v>0.002292750708166185</v>
       </c>
       <c r="T18">
-        <v>0.0852076869595542</v>
+        <v>0.002292750708166185</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01430366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.042911</v>
+      </c>
+      <c r="I19">
+        <v>0.01431671396532707</v>
+      </c>
+      <c r="J19">
+        <v>0.01431671396532707</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N19">
+        <v>69.980639</v>
+      </c>
+      <c r="O19">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P19">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q19">
+        <v>0.3336599111254444</v>
+      </c>
+      <c r="R19">
+        <v>3.002939200129</v>
+      </c>
+      <c r="S19">
+        <v>0.0007955894949186519</v>
+      </c>
+      <c r="T19">
+        <v>0.0007955894949186519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.423575</v>
+      </c>
+      <c r="H20">
+        <v>1.270725</v>
+      </c>
+      <c r="I20">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J20">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>35.43134066666666</v>
+      </c>
+      <c r="N20">
+        <v>106.294022</v>
+      </c>
+      <c r="O20">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="P20">
+        <v>0.0844066430846071</v>
+      </c>
+      <c r="Q20">
+        <v>15.00783012288333</v>
+      </c>
+      <c r="R20">
+        <v>135.07047110595</v>
+      </c>
+      <c r="S20">
+        <v>0.03578515605010946</v>
+      </c>
+      <c r="T20">
+        <v>0.03578515605010946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.423575</v>
+      </c>
+      <c r="H21">
+        <v>1.270725</v>
+      </c>
+      <c r="I21">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J21">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>82.38429266666667</v>
+      </c>
+      <c r="N21">
+        <v>247.152878</v>
+      </c>
+      <c r="O21">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="P21">
+        <v>0.1962607526571856</v>
+      </c>
+      <c r="Q21">
+        <v>34.89592676628334</v>
+      </c>
+      <c r="R21">
+        <v>314.06334089655</v>
+      </c>
+      <c r="S21">
+        <v>0.08320697759901929</v>
+      </c>
+      <c r="T21">
+        <v>0.08320697759901931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.416011011953767</v>
-      </c>
-      <c r="H19">
-        <v>0.416011011953767</v>
-      </c>
-      <c r="I19">
-        <v>0.5186675994137327</v>
-      </c>
-      <c r="J19">
-        <v>0.5186675994137327</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.12593421067</v>
-      </c>
-      <c r="N19">
-        <v>21.12593421067</v>
-      </c>
-      <c r="O19">
-        <v>0.05293330988133684</v>
-      </c>
-      <c r="P19">
-        <v>0.05293330988133684</v>
-      </c>
-      <c r="Q19">
-        <v>8.788621269449532</v>
-      </c>
-      <c r="R19">
-        <v>8.788621269449532</v>
-      </c>
-      <c r="S19">
-        <v>0.0274547927651762</v>
-      </c>
-      <c r="T19">
-        <v>0.0274547927651762</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.423575</v>
+      </c>
+      <c r="H22">
+        <v>1.270725</v>
+      </c>
+      <c r="I22">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J22">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>94.98039866666666</v>
+      </c>
+      <c r="N22">
+        <v>284.941196</v>
+      </c>
+      <c r="O22">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="P22">
+        <v>0.2262679441264634</v>
+      </c>
+      <c r="Q22">
+        <v>40.23132236523333</v>
+      </c>
+      <c r="R22">
+        <v>362.0819012871</v>
+      </c>
+      <c r="S22">
+        <v>0.09592886760804689</v>
+      </c>
+      <c r="T22">
+        <v>0.09592886760804691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.423575</v>
+      </c>
+      <c r="H23">
+        <v>1.270725</v>
+      </c>
+      <c r="I23">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J23">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>116.4226483333333</v>
+      </c>
+      <c r="N23">
+        <v>349.267945</v>
+      </c>
+      <c r="O23">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="P23">
+        <v>0.2773489441815381</v>
+      </c>
+      <c r="Q23">
+        <v>49.31372326779167</v>
+      </c>
+      <c r="R23">
+        <v>443.823509410125</v>
+      </c>
+      <c r="S23">
+        <v>0.1175852383789377</v>
+      </c>
+      <c r="T23">
+        <v>0.1175852383789377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.423575</v>
+      </c>
+      <c r="H24">
+        <v>1.270725</v>
+      </c>
+      <c r="I24">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J24">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>67.22401466666666</v>
+      </c>
+      <c r="N24">
+        <v>201.672044</v>
+      </c>
+      <c r="O24">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="P24">
+        <v>0.1601450384298299</v>
+      </c>
+      <c r="Q24">
+        <v>28.47441201243333</v>
+      </c>
+      <c r="R24">
+        <v>256.2697081119</v>
+      </c>
+      <c r="S24">
+        <v>0.06789530991201501</v>
+      </c>
+      <c r="T24">
+        <v>0.06789530991201501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.423575</v>
+      </c>
+      <c r="H25">
+        <v>1.270725</v>
+      </c>
+      <c r="I25">
+        <v>0.4239613701286439</v>
+      </c>
+      <c r="J25">
+        <v>0.423961370128644</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.32687966666667</v>
+      </c>
+      <c r="N25">
+        <v>69.980639</v>
+      </c>
+      <c r="O25">
+        <v>0.05557067752037586</v>
+      </c>
+      <c r="P25">
+        <v>0.05557067752037585</v>
+      </c>
+      <c r="Q25">
+        <v>9.880683054808333</v>
+      </c>
+      <c r="R25">
+        <v>88.926147493275</v>
+      </c>
+      <c r="S25">
+        <v>0.02355982058051558</v>
+      </c>
+      <c r="T25">
+        <v>0.02355982058051558</v>
       </c>
     </row>
   </sheetData>
